--- a/biology/Zoologie/Eryx_muelleri/Eryx_muelleri.xlsx
+++ b/biology/Zoologie/Eryx_muelleri/Eryx_muelleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryx muelleri est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryx muelleri est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Bénin, au Togo, au Niger, au Nigeria, au Cameroun, en Centrafrique, en Tchad et au Soudan[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Bénin, au Togo, au Niger, au Nigeria, au Cameroun, en Centrafrique, en Tchad et au Soudan. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces serpents mesurent jusqu'à 680 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces serpents mesurent jusqu'à 680 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 novembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 novembre 2013) :
 Eryx muelleri muelleri (Boulenger, 1892)
 Eryx muelleri subniger Angel, 1938</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fritz Müller[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fritz Müller.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Angel, 1938 : Liste des reptiles de Mauritanie recueillis par la mission d'études de la biologie des Acridiens en 1936 et 1937. Description d'une sous-espèce nouvelle d'Eryx muelleri. Bulletin du Muséum national d'histoire naturelle de Paris, sér. 2, vol. 10, p. 485-487.
 Boulenger, 1892 : Description of a new snake from Nubia. Annals and Magazine of Natural History, sér. 6, vol. 9, p. 74-76 (texte intégral).</t>
